--- a/excel/Описание_работ/7/Физика/ALL.xlsx
+++ b/excel/Описание_работ/7/Физика/ALL.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$H$205</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="74">
   <si>
     <t>№ КИМ</t>
   </si>
@@ -118,12 +121,6 @@
   </si>
   <si>
     <t>2.1.7</t>
-  </si>
-  <si>
-    <t>2.2.</t>
-  </si>
-  <si>
-    <t>2.3.</t>
   </si>
   <si>
     <t>2.3.7</t>
@@ -565,10 +562,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="H198" sqref="H198"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -613,7 +611,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -625,7 +623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -636,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -648,7 +646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -659,7 +657,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
@@ -671,7 +669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -682,7 +680,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -694,7 +692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -705,7 +703,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
@@ -717,7 +715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -728,7 +726,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -740,7 +738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -751,7 +749,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
@@ -763,7 +761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -774,7 +772,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>15</v>
@@ -786,7 +784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -797,7 +795,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>16</v>
@@ -809,7 +807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -820,7 +818,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>17</v>
@@ -832,7 +830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -843,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>18</v>
@@ -855,7 +853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -866,7 +864,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>19</v>
@@ -878,7 +876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -889,7 +887,7 @@
         <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>14</v>
@@ -901,7 +899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -912,7 +910,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>15</v>
@@ -924,7 +922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -935,7 +933,7 @@
         <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>16</v>
@@ -947,7 +945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -958,7 +956,7 @@
         <v>24</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>17</v>
@@ -970,7 +968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -981,7 +979,7 @@
         <v>24</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>18</v>
@@ -993,7 +991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1004,7 +1002,7 @@
         <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>19</v>
@@ -1016,7 +1014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1027,7 +1025,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>14</v>
@@ -1039,7 +1037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1050,7 +1048,7 @@
         <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>15</v>
@@ -1062,7 +1060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1073,7 +1071,7 @@
         <v>24</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>16</v>
@@ -1085,7 +1083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1096,7 +1094,7 @@
         <v>24</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>17</v>
@@ -1108,7 +1106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1119,7 +1117,7 @@
         <v>24</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>18</v>
@@ -1131,7 +1129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1142,7 +1140,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>19</v>
@@ -1154,7 +1152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1165,7 +1163,7 @@
         <v>24</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>14</v>
@@ -1177,7 +1175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
@@ -1188,7 +1186,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>15</v>
@@ -1200,7 +1198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1211,7 +1209,7 @@
         <v>24</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>16</v>
@@ -1223,7 +1221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1234,7 +1232,7 @@
         <v>24</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>17</v>
@@ -1246,7 +1244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
@@ -1257,7 +1255,7 @@
         <v>24</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>18</v>
@@ -1269,7 +1267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
@@ -1280,7 +1278,7 @@
         <v>24</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>19</v>
@@ -1292,7 +1290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1300,10 +1298,10 @@
         <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>25</v>
@@ -1315,7 +1313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -1323,10 +1321,10 @@
         <v>30</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>15</v>
@@ -1338,7 +1336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -1346,10 +1344,10 @@
         <v>30</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>31</v>
@@ -1361,7 +1359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1369,10 +1367,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>32</v>
@@ -1384,7 +1382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
@@ -1392,10 +1390,10 @@
         <v>30</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>17</v>
@@ -1415,13 +1413,13 @@
         <v>30</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>9</v>
@@ -1438,13 +1436,13 @@
         <v>30</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>9</v>
@@ -1453,7 +1451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
@@ -1461,13 +1459,13 @@
         <v>30</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>9</v>
@@ -1476,7 +1474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
@@ -1484,10 +1482,10 @@
         <v>30</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>25</v>
@@ -1499,7 +1497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>30</v>
       </c>
@@ -1507,10 +1505,10 @@
         <v>30</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>15</v>
@@ -1522,7 +1520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>30</v>
       </c>
@@ -1530,10 +1528,10 @@
         <v>30</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>31</v>
@@ -1545,7 +1543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
@@ -1553,10 +1551,10 @@
         <v>30</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>32</v>
@@ -1568,7 +1566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
@@ -1576,10 +1574,10 @@
         <v>30</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>17</v>
@@ -1599,13 +1597,13 @@
         <v>30</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>22</v>
@@ -1622,13 +1620,13 @@
         <v>30</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>22</v>
@@ -1637,7 +1635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>30</v>
       </c>
@@ -1645,13 +1643,13 @@
         <v>30</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>22</v>
@@ -1660,18 +1658,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>26</v>
@@ -1683,21 +1681,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>29</v>
@@ -1706,18 +1704,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>15</v>
@@ -1729,18 +1727,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>26</v>
@@ -1752,21 +1750,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>21</v>
@@ -1775,18 +1773,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>15</v>
@@ -1798,18 +1796,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>11</v>
@@ -1821,18 +1819,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>12</v>
@@ -1844,21 +1842,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>9</v>
@@ -1867,21 +1865,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>9</v>
@@ -1890,21 +1888,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>9</v>
@@ -1913,133 +1911,133 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F62" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F63" s="1" t="s">
+      <c r="H63" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>11</v>
@@ -2051,18 +2049,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>12</v>
@@ -2074,21 +2072,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>11</v>
@@ -2097,21 +2095,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>11</v>
@@ -2120,21 +2118,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>11</v>
@@ -2143,18 +2141,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>11</v>
@@ -2166,18 +2164,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>12</v>
@@ -2189,21 +2187,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>26</v>
@@ -2212,21 +2210,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>26</v>
@@ -2235,21 +2233,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>26</v>
@@ -2258,18 +2256,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>11</v>
@@ -2281,18 +2279,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>12</v>
@@ -2304,21 +2302,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>21</v>
@@ -2327,21 +2325,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>21</v>
@@ -2350,21 +2348,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>21</v>
@@ -2373,18 +2371,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>25</v>
@@ -2396,18 +2394,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>15</v>
@@ -2419,21 +2417,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>8</v>
@@ -2442,21 +2440,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D82" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>8</v>
@@ -2465,18 +2463,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>17</v>
@@ -2488,21 +2486,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>8</v>
@@ -2511,18 +2509,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>25</v>
@@ -2534,18 +2532,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>15</v>
@@ -2557,21 +2555,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>29</v>
@@ -2580,21 +2578,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D88" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>29</v>
@@ -2603,18 +2601,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>17</v>
@@ -2626,21 +2624,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>29</v>
@@ -2649,18 +2647,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>25</v>
@@ -2672,18 +2670,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>15</v>
@@ -2695,21 +2693,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>22</v>
@@ -2718,21 +2716,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D94" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>22</v>
@@ -2741,18 +2739,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>17</v>
@@ -2764,21 +2762,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>22</v>
@@ -2787,18 +2785,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>25</v>
@@ -2810,18 +2808,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>26</v>
@@ -2833,18 +2831,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>28</v>
@@ -2856,18 +2854,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>15</v>
@@ -2879,21 +2877,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>10</v>
@@ -2902,21 +2900,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>10</v>
@@ -2925,18 +2923,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>32</v>
@@ -2948,21 +2946,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>10</v>
@@ -2971,202 +2969,202 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D109" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="H109" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D110" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="H110" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G111" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="E113" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>25</v>
@@ -3178,18 +3176,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>17</v>
@@ -3201,18 +3199,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>18</v>
@@ -3224,21 +3222,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>9</v>
@@ -3247,18 +3245,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>19</v>
@@ -3270,21 +3268,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>9</v>
@@ -3293,21 +3291,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D119" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>9</v>
@@ -3316,21 +3314,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>9</v>
@@ -3339,18 +3337,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>25</v>
@@ -3362,18 +3360,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>17</v>
@@ -3385,18 +3383,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>18</v>
@@ -3408,21 +3406,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>21</v>
@@ -3431,18 +3429,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>19</v>
@@ -3454,21 +3452,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>21</v>
@@ -3477,21 +3475,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D127" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>21</v>
@@ -3500,21 +3498,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>21</v>
@@ -3523,18 +3521,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>25</v>
@@ -3546,18 +3544,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>17</v>
@@ -3569,18 +3567,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>18</v>
@@ -3592,18 +3590,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>25</v>
@@ -3615,18 +3613,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>17</v>
@@ -3638,18 +3636,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>18</v>
@@ -3661,18 +3659,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>18</v>
@@ -3684,21 +3682,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>29</v>
@@ -3707,18 +3705,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>19</v>
@@ -3730,21 +3728,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>29</v>
@@ -3753,21 +3751,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>29</v>
@@ -3776,21 +3774,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>29</v>
@@ -3799,21 +3797,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>29</v>
@@ -3822,21 +3820,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>29</v>
@@ -3845,21 +3843,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D143" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>29</v>
@@ -3868,21 +3866,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>29</v>
@@ -3891,21 +3889,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>29</v>
@@ -3914,21 +3912,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>29</v>
@@ -3937,18 +3935,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>18</v>
@@ -3960,21 +3958,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>21</v>
@@ -3983,18 +3981,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>19</v>
@@ -4006,21 +4004,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>21</v>
@@ -4029,21 +4027,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>21</v>
@@ -4052,21 +4050,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>21</v>
@@ -4075,21 +4073,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>21</v>
@@ -4098,21 +4096,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>21</v>
@@ -4121,21 +4119,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D155" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F155" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>21</v>
@@ -4144,21 +4142,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>21</v>
@@ -4167,21 +4165,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>21</v>
@@ -4190,21 +4188,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>21</v>
@@ -4213,18 +4211,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>18</v>
@@ -4236,21 +4234,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>22</v>
@@ -4259,18 +4257,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>19</v>
@@ -4282,21 +4280,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>22</v>
@@ -4305,21 +4303,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>22</v>
@@ -4328,21 +4326,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>22</v>
@@ -4351,21 +4349,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>22</v>
@@ -4374,21 +4372,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>22</v>
@@ -4397,21 +4395,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D167" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F167" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>22</v>
@@ -4420,21 +4418,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>22</v>
@@ -4443,21 +4441,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>22</v>
@@ -4466,21 +4464,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>22</v>
@@ -4489,18 +4487,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>29</v>
@@ -4512,18 +4510,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>9</v>
@@ -4535,18 +4533,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>10</v>
@@ -4558,21 +4556,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>11</v>
@@ -4581,18 +4579,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>25</v>
@@ -4604,18 +4602,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>12</v>
@@ -4627,21 +4625,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>11</v>
@@ -4650,18 +4648,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>29</v>
@@ -4673,18 +4671,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>9</v>
@@ -4696,18 +4694,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>10</v>
@@ -4719,21 +4717,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>26</v>
@@ -4742,18 +4740,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>25</v>
@@ -4765,18 +4763,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>12</v>
@@ -4788,21 +4786,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>26</v>
@@ -4811,18 +4809,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>29</v>
@@ -4834,18 +4832,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>9</v>
@@ -4857,18 +4855,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>10</v>
@@ -4880,21 +4878,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>27</v>
@@ -4903,18 +4901,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>25</v>
@@ -4926,18 +4924,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>12</v>
@@ -4949,21 +4947,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>27</v>
@@ -4972,329 +4970,337 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E195" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E196" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E198" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F198" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G198" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H198" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E199" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E202" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F202" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H202" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E203" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H205">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="2.2."/>
+        <filter val="2.3."/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
